--- a/TC04_CancelService/04_Data_CancelService.xlsx
+++ b/TC04_CancelService/04_Data_CancelService.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\TC04_CancelService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F27C40A-D3E0-4D05-8C31-571CD9784892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBCBC33-A153-44A8-8DBF-89BAC1AC388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -7199,6 +7199,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F290:F301"/>
+    <mergeCell ref="F302:F313"/>
+    <mergeCell ref="F314:F325"/>
+    <mergeCell ref="F326:F337"/>
+    <mergeCell ref="F338:F349"/>
+    <mergeCell ref="F278:F289"/>
+    <mergeCell ref="F146:F157"/>
+    <mergeCell ref="F158:F169"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="F182:F193"/>
+    <mergeCell ref="F194:F205"/>
+    <mergeCell ref="F206:F217"/>
+    <mergeCell ref="F218:F229"/>
+    <mergeCell ref="F230:F241"/>
+    <mergeCell ref="F242:F253"/>
+    <mergeCell ref="F254:F265"/>
+    <mergeCell ref="F266:F277"/>
     <mergeCell ref="F134:F145"/>
     <mergeCell ref="F2:F13"/>
     <mergeCell ref="F14:F25"/>
@@ -7211,23 +7228,6 @@
     <mergeCell ref="F98:F109"/>
     <mergeCell ref="F110:F121"/>
     <mergeCell ref="F122:F133"/>
-    <mergeCell ref="F278:F289"/>
-    <mergeCell ref="F146:F157"/>
-    <mergeCell ref="F158:F169"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="F182:F193"/>
-    <mergeCell ref="F194:F205"/>
-    <mergeCell ref="F206:F217"/>
-    <mergeCell ref="F218:F229"/>
-    <mergeCell ref="F230:F241"/>
-    <mergeCell ref="F242:F253"/>
-    <mergeCell ref="F254:F265"/>
-    <mergeCell ref="F266:F277"/>
-    <mergeCell ref="F290:F301"/>
-    <mergeCell ref="F302:F313"/>
-    <mergeCell ref="F314:F325"/>
-    <mergeCell ref="F326:F337"/>
-    <mergeCell ref="F338:F349"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
